--- a/papers/BM supply list.xlsx
+++ b/papers/BM supply list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tim\Desktop\timburr1.github.io\papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C6DE17-E366-4E2F-AC2F-67CFF395792E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37DC96CB-8B85-434D-A5A2-C50946781B82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="22995" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="24045" windowHeight="13785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="168">
   <si>
     <t>Health/Medicine</t>
   </si>
@@ -521,6 +521,9 @@
   </si>
   <si>
     <t>watch?</t>
+  </si>
+  <si>
+    <t>kitty litter</t>
   </si>
 </sst>
 </file>
@@ -1025,8 +1028,8 @@
   </sheetPr>
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1711,8 +1714,10 @@
       <c r="B32" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="13" t="s">
+        <v>167</v>
+      </c>
       <c r="G32" s="12"/>
       <c r="H32" s="19"/>
       <c r="I32" s="5"/>

--- a/papers/BM supply list.xlsx
+++ b/papers/BM supply list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tim\Desktop\timburr1.github.io\papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37DC96CB-8B85-434D-A5A2-C50946781B82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3DC18B-2924-4B61-9FD4-A2B5B145895E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="24045" windowHeight="13785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23460" yWindow="1020" windowWidth="20160" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="173">
   <si>
     <t>Health/Medicine</t>
   </si>
@@ -55,9 +55,6 @@
     <t>lotion</t>
   </si>
   <si>
-    <t>SLEEPING PAD/AIR MATTRESS</t>
-  </si>
-  <si>
     <t>propane stove</t>
   </si>
   <si>
@@ -259,9 +256,6 @@
     <t>caribeeners</t>
   </si>
   <si>
-    <t>measuring cup</t>
-  </si>
-  <si>
     <t>daily medicine (if you have any)</t>
   </si>
   <si>
@@ -349,9 +343,6 @@
     <t>sunscreen</t>
   </si>
   <si>
-    <t>camp chair</t>
-  </si>
-  <si>
     <t>jar/container for cooking oil</t>
   </si>
   <si>
@@ -505,9 +496,6 @@
     <t>rags</t>
   </si>
   <si>
-    <t>bike stand</t>
-  </si>
-  <si>
     <t>bluetooth speaker</t>
   </si>
   <si>
@@ -524,13 +512,40 @@
   </si>
   <si>
     <t>kitty litter</t>
+  </si>
+  <si>
+    <t>measuring cups</t>
+  </si>
+  <si>
+    <t>camp chairs</t>
+  </si>
+  <si>
+    <t>Gifts</t>
+  </si>
+  <si>
+    <t>Bic lighters</t>
+  </si>
+  <si>
+    <t>tissues packets</t>
+  </si>
+  <si>
+    <t>chapsticks</t>
+  </si>
+  <si>
+    <t>COT/SLEEPING PAD/AIR MATTRESS</t>
+  </si>
+  <si>
+    <t>Magic Juice</t>
+  </si>
+  <si>
+    <t>bike stand?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -561,8 +576,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -597,6 +618,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -646,11 +673,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="23">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -660,7 +688,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -709,8 +737,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1028,8 +1059,8 @@
   </sheetPr>
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1098,407 +1129,407 @@
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="8" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" s="11"/>
       <c r="J10" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13"/>
       <c r="B15" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="8" t="s">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G18" s="12"/>
       <c r="H18" s="13"/>
       <c r="I18" s="11"/>
       <c r="J18" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G19" s="12"/>
       <c r="H19" s="13"/>
       <c r="I19" s="11"/>
       <c r="J19" s="8" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G20" s="12"/>
       <c r="H20" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="8" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="13"/>
@@ -1506,251 +1537,266 @@
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G22" s="9"/>
       <c r="H22" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I22" s="11"/>
       <c r="J22" s="14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I23" s="7"/>
       <c r="J23" s="15" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="15" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="8" t="s">
-        <v>109</v>
+        <v>165</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I26" s="16"/>
       <c r="J26" s="15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="13" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="17" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I27" s="7"/>
       <c r="J27" s="15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="13"/>
       <c r="E28" s="7"/>
       <c r="F28" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I28" s="7"/>
       <c r="J28" s="15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="18" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I29" s="7"/>
       <c r="J29" s="15" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G30" s="9"/>
       <c r="H30" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>166</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G31" s="9"/>
       <c r="H31" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I31" s="5"/>
       <c r="J31" s="15" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="13" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G32" s="12"/>
       <c r="H32" s="19"/>
       <c r="I32" s="5"/>
       <c r="J32" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="13" t="s">
-        <v>166</v>
+        <v>162</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
       <c r="G33" s="9"/>
       <c r="H33" s="10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="13" t="s">
-        <v>139</v>
+        <v>136</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
       <c r="G34" s="9"/>
       <c r="H34" s="10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I34" s="20"/>
       <c r="J34" s="13"/>
@@ -1758,47 +1804,47 @@
     <row r="35" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="13" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
       <c r="G35" s="9"/>
       <c r="H35" s="10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
       <c r="B36" s="13" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
       <c r="G36" s="9"/>
       <c r="H36" s="10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="B37" s="13" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G37" s="9"/>
       <c r="H37" s="8" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
@@ -1806,11 +1852,11 @@
       <c r="B38" s="19"/>
       <c r="G38" s="9"/>
       <c r="H38" s="8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
@@ -1818,11 +1864,11 @@
       <c r="B39" s="13"/>
       <c r="G39" s="9"/>
       <c r="H39" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I39" s="5"/>
       <c r="J39" s="8" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
@@ -1830,7 +1876,10 @@
       <c r="B40" s="13"/>
       <c r="G40" s="13"/>
       <c r="H40" s="8"/>
-      <c r="I40" s="13"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="21" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="41" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G41" s="13"/>
@@ -1852,7 +1901,10 @@
     <row r="45" spans="1:10" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="46" spans="1:10" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J40" r:id="rId1" xr:uid="{D28B58BF-0A0F-43EE-8C77-019B4C1F9934}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/papers/BM supply list.xlsx
+++ b/papers/BM supply list.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tim\Desktop\timburr1.github.io\papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3DC18B-2924-4B61-9FD4-A2B5B145895E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98EF3EBC-3EA5-49C7-BD75-7403199AC2E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23460" yWindow="1020" windowWidth="20160" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23955" yWindow="2190" windowWidth="21390" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="179">
   <si>
     <t>Health/Medicine</t>
   </si>
@@ -289,18 +289,12 @@
     <t>bandaids</t>
   </si>
   <si>
-    <t>rope</t>
-  </si>
-  <si>
     <t>aluminum foil</t>
   </si>
   <si>
     <t>razor</t>
   </si>
   <si>
-    <t>camelback w/ name + playa address</t>
-  </si>
-  <si>
     <t>water bottle (2)</t>
   </si>
   <si>
@@ -325,9 +319,6 @@
     <t>bricks for under coolers</t>
   </si>
   <si>
-    <t>coconut water</t>
-  </si>
-  <si>
     <t>foot bathtub</t>
   </si>
   <si>
@@ -400,9 +391,6 @@
     <t>big spoon</t>
   </si>
   <si>
-    <t>apples</t>
-  </si>
-  <si>
     <t>timer/alarm/clock (PHONE)</t>
   </si>
   <si>
@@ -436,9 +424,6 @@
     <t>chain breaker</t>
   </si>
   <si>
-    <t>books</t>
-  </si>
-  <si>
     <t>pedal wrench</t>
   </si>
   <si>
@@ -451,24 +436,15 @@
     <t>3-way allen wrench</t>
   </si>
   <si>
-    <t>cold-brew coffee</t>
-  </si>
-  <si>
     <t>sewing kit</t>
   </si>
   <si>
     <t>wrenches</t>
   </si>
   <si>
-    <t>bagels</t>
-  </si>
-  <si>
     <t>screwdrivers</t>
   </si>
   <si>
-    <t>chicken strips</t>
-  </si>
-  <si>
     <t>crescent wrench</t>
   </si>
   <si>
@@ -478,12 +454,6 @@
     <t>crank arm puller</t>
   </si>
   <si>
-    <t>tortillas</t>
-  </si>
-  <si>
-    <t>Mountain House meals</t>
-  </si>
-  <si>
     <t>chain lube</t>
   </si>
   <si>
@@ -508,18 +478,12 @@
     <t>fanny pack</t>
   </si>
   <si>
-    <t>watch?</t>
-  </si>
-  <si>
     <t>kitty litter</t>
   </si>
   <si>
     <t>measuring cups</t>
   </si>
   <si>
-    <t>camp chairs</t>
-  </si>
-  <si>
     <t>Gifts</t>
   </si>
   <si>
@@ -539,6 +503,60 @@
   </si>
   <si>
     <t>bike stand?</t>
+  </si>
+  <si>
+    <t>ear plugs</t>
+  </si>
+  <si>
+    <t>camp chairs (2)</t>
+  </si>
+  <si>
+    <t>eggs</t>
+  </si>
+  <si>
+    <t>bacon</t>
+  </si>
+  <si>
+    <t>hash browns</t>
+  </si>
+  <si>
+    <t>B vitamins</t>
+  </si>
+  <si>
+    <t>rope/paracord</t>
+  </si>
+  <si>
+    <t>backpack w/ name + playa address</t>
+  </si>
+  <si>
+    <t>aloe</t>
+  </si>
+  <si>
+    <t>extra tarp</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>books + dungeon world character sheets</t>
+  </si>
+  <si>
+    <t>bread/bagels</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>cast-iron skillet</t>
+  </si>
+  <si>
+    <t>french press</t>
+  </si>
+  <si>
+    <t>paint scraper</t>
+  </si>
+  <si>
+    <t>fire extinguisher</t>
   </si>
 </sst>
 </file>
@@ -677,7 +695,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -739,6 +757,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1059,14 +1078,14 @@
   </sheetPr>
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.42578125" style="4" customWidth="1"/>
     <col min="4" max="4" width="30.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.140625" style="4" customWidth="1"/>
@@ -1129,7 +1148,7 @@
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="8" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="8" t="s">
@@ -1309,11 +1328,11 @@
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="8" t="s">
-        <v>50</v>
+        <v>175</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="8" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="8" t="s">
@@ -1331,7 +1350,7 @@
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="8" t="s">
-        <v>54</v>
+        <v>176</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="8" t="s">
@@ -1353,7 +1372,7 @@
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="8" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="8" t="s">
@@ -1375,7 +1394,7 @@
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="8" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="8" t="s">
@@ -1397,7 +1416,7 @@
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="8" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="8" t="s">
@@ -1419,7 +1438,7 @@
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="8" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="8" t="s">
@@ -1441,7 +1460,7 @@
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="8" t="s">
-        <v>164</v>
+        <v>69</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="8" t="s">
@@ -1463,7 +1482,7 @@
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="8" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G18" s="12"/>
       <c r="H18" s="13"/>
@@ -1483,13 +1502,13 @@
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="8" t="s">
-        <v>86</v>
+        <v>153</v>
       </c>
       <c r="G19" s="12"/>
       <c r="H19" s="13"/>
       <c r="I19" s="11"/>
       <c r="J19" s="8" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1499,37 +1518,37 @@
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="8" t="s">
-        <v>89</v>
+        <v>167</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="8" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G20" s="12"/>
       <c r="H20" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="8" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="8" t="s">
-        <v>92</v>
+        <v>168</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G21" s="9"/>
-      <c r="H21" s="8" t="s">
-        <v>101</v>
+      <c r="H21" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="13"/>
@@ -1537,266 +1556,275 @@
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G22" s="9"/>
       <c r="H22" s="8" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I22" s="11"/>
       <c r="J22" s="14" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="8" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="8" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="I23" s="7"/>
       <c r="J23" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="8" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="G24" s="9"/>
-      <c r="H24" s="8" t="s">
-        <v>112</v>
+      <c r="H24" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="15" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="8" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G25" s="9"/>
-      <c r="H25" s="8" t="s">
-        <v>115</v>
+      <c r="H25" s="13" t="s">
+        <v>165</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="15" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="8" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="G26" s="9"/>
-      <c r="H26" s="8" t="s">
-        <v>118</v>
+      <c r="H26" s="4" t="s">
+        <v>173</v>
       </c>
       <c r="I26" s="16"/>
       <c r="J26" s="15" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="13" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="8" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="G27" s="9"/>
-      <c r="H27" s="17" t="s">
-        <v>122</v>
+      <c r="H27" s="8" t="s">
+        <v>129</v>
       </c>
       <c r="I27" s="7"/>
       <c r="J27" s="15" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C28" s="11"/>
-      <c r="D28" s="13"/>
+      <c r="D28" s="13" t="s">
+        <v>170</v>
+      </c>
       <c r="E28" s="7"/>
       <c r="F28" s="8" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G28" s="9"/>
-      <c r="H28" s="8" t="s">
-        <v>126</v>
+      <c r="H28" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="I28" s="7"/>
       <c r="J28" s="15" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="8" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="G29" s="9"/>
-      <c r="H29" s="18" t="s">
-        <v>130</v>
+      <c r="H29" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="I29" s="7"/>
       <c r="J29" s="15" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="8" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="G30" s="9"/>
       <c r="H30" s="8" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="15" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="8" t="s">
-        <v>127</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="C31" s="23"/>
       <c r="D31" s="22" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="8" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="G31" s="9"/>
       <c r="H31" s="8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I31" s="5"/>
       <c r="J31" s="15" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="8" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="4" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="E32" s="7"/>
-      <c r="F32" s="13" t="s">
-        <v>163</v>
+      <c r="F32" s="8" t="s">
+        <v>122</v>
       </c>
       <c r="G32" s="12"/>
-      <c r="H32" s="19"/>
+      <c r="H32" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="I32" s="5"/>
       <c r="J32" s="15" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="13" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
+        <v>156</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="8" t="s">
+        <v>125</v>
+      </c>
       <c r="G33" s="9"/>
-      <c r="H33" s="10" t="s">
-        <v>140</v>
+      <c r="H33" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="15" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="13" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
+        <v>157</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="13" t="s">
+        <v>152</v>
+      </c>
       <c r="G34" s="9"/>
-      <c r="H34" s="10" t="s">
-        <v>143</v>
+      <c r="H34" s="18" t="s">
+        <v>126</v>
       </c>
       <c r="I34" s="20"/>
       <c r="J34" s="13"/>
@@ -1804,87 +1832,92 @@
     <row r="35" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
+        <v>172</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="13" t="s">
+        <v>178</v>
+      </c>
       <c r="G35" s="9"/>
-      <c r="H35" s="10" t="s">
-        <v>146</v>
+      <c r="H35" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="8" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
       <c r="B36" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
       <c r="G36" s="9"/>
-      <c r="H36" s="10" t="s">
-        <v>148</v>
+      <c r="H36" s="17" t="s">
+        <v>119</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="8" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="B37" s="13" t="s">
-        <v>144</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="F37" s="13"/>
       <c r="G37" s="9"/>
-      <c r="H37" s="8" t="s">
-        <v>150</v>
-      </c>
       <c r="I37" s="5"/>
       <c r="J37" s="8" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="13"/>
-      <c r="B38" s="19"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="F38" s="13"/>
       <c r="G38" s="9"/>
-      <c r="H38" s="8" t="s">
-        <v>152</v>
-      </c>
       <c r="I38" s="5"/>
       <c r="J38" s="8" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="13" t="s">
+        <v>169</v>
+      </c>
       <c r="G39" s="9"/>
-      <c r="H39" s="8" t="s">
-        <v>153</v>
-      </c>
       <c r="I39" s="5"/>
       <c r="J39" s="8" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="13"/>
       <c r="B40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="8"/>
+      <c r="G40" s="9"/>
       <c r="I40" s="5"/>
       <c r="J40" s="21" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G41" s="13"/>
       <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="4" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="42" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G42" s="13"/>
@@ -1893,11 +1926,8 @@
     </row>
     <row r="43" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-    </row>
-    <row r="44" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="H44" s="13"/>
-    </row>
+    </row>
+    <row r="44" spans="1:10" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="45" spans="1:10" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="46" spans="1:10" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
